--- a/docs/Madden NFL/College Football/NCAA Gamebreaker 2001 Ratings.xlsx
+++ b/docs/Madden NFL/College Football/NCAA Gamebreaker 2001 Ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Sports Games/Madden NFL/College Football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42090" documentId="11_AD4DF034E34935FBC521DCD7BFD97F025BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F32C82-B4FB-4775-AD24-B1446FBB54ED}"/>
+  <xr:revisionPtr revIDLastSave="42092" documentId="11_AD4DF034E34935FBC521DCD7BFD97F025BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0173033-BC3A-4C1F-8B76-B09DB5E477E0}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="264" windowWidth="22956" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="384" windowWidth="22884" windowHeight="10476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -746,54 +746,6 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -882,6 +834,54 @@
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -914,41 +914,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:G2" insertRow="1" totalsRowShown="0" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:G2" insertRow="1" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:G2" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
     <sortCondition descending="1" ref="B1:B2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="23"/>
-    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="22"/>
-    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="21"/>
-    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{EAFB4AAE-AEBB-4D04-A394-E176AD005B52}" name="College Class" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{E66A785D-A579-46ED-8B8B-B4340A4EB120}" name="NFL Draft Pick" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{DBC1FC4E-71D0-42F6-917D-030D8AFAD02B}" name="NFL Draft Year" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="16"/>
+    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="15"/>
+    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="14"/>
+    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EAFB4AAE-AEBB-4D04-A394-E176AD005B52}" name="College Class" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E66A785D-A579-46ED-8B8B-B4340A4EB120}" name="NFL Draft Pick" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DBC1FC4E-71D0-42F6-917D-030D8AFAD02B}" name="NFL Draft Year" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:F117" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:F117" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:F117" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F117">
     <sortCondition ref="C1:C117"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C53DFEC1-CC21-4EEA-97C2-F9B2DCE9ABF2}" name="State" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{6FACB05C-1DF7-4EA6-BC93-4081674D8DA1}" name="Conference" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C53DFEC1-CC21-4EEA-97C2-F9B2DCE9ABF2}" name="State" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{6FACB05C-1DF7-4EA6-BC93-4081674D8DA1}" name="Conference" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="20">
       <calculatedColumnFormula>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A2F68200-4379-4D66-913F-BED255FCA1C0}" name="Missing Players" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{A2F68200-4379-4D66-913F-BED255FCA1C0}" name="Missing Players" dataDxfId="19">
       <calculatedColumnFormula>Tabela2[[#This Row],[Number Players]]-Tabela2[[#This Row],[Total Players]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F70948CF-6554-4CC6-82C8-A3DD133183E4}" name="Total Players" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F70948CF-6554-4CC6-82C8-A3DD133183E4}" name="Total Players" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B5C15-9235-4990-AD10-9915F8885DD9}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
